--- a/data/trans_orig/P16A03-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19454</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11275</v>
+        <v>12557</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29878</v>
+        <v>31159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03330312481404785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0193022316034042</v>
+        <v>0.02149633104650238</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05114924903790152</v>
+        <v>0.05334182287096915</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -765,19 +765,19 @@
         <v>69222</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53756</v>
+        <v>54778</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85141</v>
+        <v>87896</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0750514463609101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05828279615749214</v>
+        <v>0.05939040975540102</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0923109174421439</v>
+        <v>0.09529764669533698</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -786,19 +786,19 @@
         <v>88676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72541</v>
+        <v>70664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108698</v>
+        <v>106246</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05886337106327538</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04815309288197426</v>
+        <v>0.04690658190225434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0721541847299491</v>
+        <v>0.07052610503708245</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>564687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>554263</v>
+        <v>552982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>572866</v>
+        <v>571584</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9666968751859522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9488507509620985</v>
+        <v>0.9466581771290308</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9806977683965957</v>
+        <v>0.9785036689534976</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>815</v>
@@ -836,19 +836,19 @@
         <v>853111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>837192</v>
+        <v>834437</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>868577</v>
+        <v>867555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9249485536390899</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9076890825578561</v>
+        <v>0.9047023533046629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9417172038425078</v>
+        <v>0.9406095902445989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1371</v>
@@ -857,19 +857,19 @@
         <v>1417798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1397776</v>
+        <v>1400228</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1433933</v>
+        <v>1435810</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9411366289367247</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9278458152700508</v>
+        <v>0.9294738949629178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9518469071180258</v>
+        <v>0.9530934180977459</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8922</v>
+        <v>9058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24728</v>
+        <v>25919</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01426297420991413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008277422104906182</v>
+        <v>0.008403862742229073</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02294114548869224</v>
+        <v>0.02404624434766556</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -982,19 +982,19 @@
         <v>44151</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33435</v>
+        <v>32106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58530</v>
+        <v>57958</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04174892301369396</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03161593593305135</v>
+        <v>0.0303596594933223</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05534568066913451</v>
+        <v>0.05480504127684626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -1003,19 +1003,19 @@
         <v>59525</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45848</v>
+        <v>45945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75846</v>
+        <v>77460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02787494355677229</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02146993726524806</v>
+        <v>0.02151578241457019</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0355179315783905</v>
+        <v>0.036273807552572</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1062520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1053166</v>
+        <v>1051975</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1068972</v>
+        <v>1068836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9857370257900858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9770588545113076</v>
+        <v>0.9759537556523349</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9917225778950938</v>
+        <v>0.9915961372577712</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>985</v>
@@ -1053,19 +1053,19 @@
         <v>1013387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>999008</v>
+        <v>999580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1024103</v>
+        <v>1025432</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9582510769863061</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9446543193308646</v>
+        <v>0.9451949587231537</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9683840640669485</v>
+        <v>0.9696403405066778</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2025</v>
@@ -1074,19 +1074,19 @@
         <v>2075907</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2059586</v>
+        <v>2057972</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2089584</v>
+        <v>2089487</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9721250564432277</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9644820684216096</v>
+        <v>0.963726192447428</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.978530062734752</v>
+        <v>0.9784842175854299</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>21411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12830</v>
+        <v>13935</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33005</v>
+        <v>34030</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01910704036906893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01144985509469913</v>
+        <v>0.01243535217276019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02945318380720345</v>
+        <v>0.03036800504955814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1199,19 +1199,19 @@
         <v>46786</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35407</v>
+        <v>34623</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61671</v>
+        <v>62279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04707107018102897</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03562298184832939</v>
+        <v>0.03483427164803644</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06204674243977087</v>
+        <v>0.06265832826721605</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1220,19 +1220,19 @@
         <v>68197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53459</v>
+        <v>53468</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85409</v>
+        <v>86030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0322516845985954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02528209500749956</v>
+        <v>0.02528599300171211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04039195655852896</v>
+        <v>0.04068523680872081</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1099165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1087571</v>
+        <v>1086546</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1107746</v>
+        <v>1106641</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.980892959630931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9705468161927965</v>
+        <v>0.9696319949504418</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9885501449053008</v>
+        <v>0.9875646478272397</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>936</v>
@@ -1270,19 +1270,19 @@
         <v>947154</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>932269</v>
+        <v>931661</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>958533</v>
+        <v>959317</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.952928929818971</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9379532575602292</v>
+        <v>0.9373416717327839</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9643770181516705</v>
+        <v>0.9651657283519636</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2018</v>
@@ -1291,19 +1291,19 @@
         <v>2046319</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2029107</v>
+        <v>2028486</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2061057</v>
+        <v>2061048</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9677483154014046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9596080434414714</v>
+        <v>0.9593147631912792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9747179049925006</v>
+        <v>0.974714006998288</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13376</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7376</v>
+        <v>7585</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22074</v>
+        <v>22257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02991032802695425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01649395257951176</v>
+        <v>0.01696016584384298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04935960278959683</v>
+        <v>0.04977077087657275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1416,19 +1416,19 @@
         <v>13228</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7384</v>
+        <v>7058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21305</v>
+        <v>22090</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03877354570279468</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02164317560454521</v>
+        <v>0.02068767824665963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06244777433965292</v>
+        <v>0.06475066230447091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1437,19 +1437,19 @@
         <v>26604</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17371</v>
+        <v>17893</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37269</v>
+        <v>38947</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0337458440082341</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02203497803017947</v>
+        <v>0.02269681688914868</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04727459562375265</v>
+        <v>0.04940221895166631</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>433824</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>425126</v>
+        <v>424943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439824</v>
+        <v>439615</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9700896719730457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9506403972104034</v>
+        <v>0.9502292291234271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9835060474204885</v>
+        <v>0.983039834156157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -1487,19 +1487,19 @@
         <v>327930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319853</v>
+        <v>319068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333774</v>
+        <v>334100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9612264542972053</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9375522256603471</v>
+        <v>0.9352493376955292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9783568243954551</v>
+        <v>0.9793123217533405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>749</v>
@@ -1508,19 +1508,19 @@
         <v>761754</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>751089</v>
+        <v>749411</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>770987</v>
+        <v>770465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9662541559917659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9527254043762469</v>
+        <v>0.950597781048333</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9779650219698205</v>
+        <v>0.977303183110851</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>69614</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53441</v>
+        <v>53143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86883</v>
+        <v>87285</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02155373367805523</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01654629635810649</v>
+        <v>0.01645399724113421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02690035692393336</v>
+        <v>0.02702494414390868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -1633,19 +1633,19 @@
         <v>173387</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>147808</v>
+        <v>149250</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>198936</v>
+        <v>200096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0523043285203242</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04458790854924371</v>
+        <v>0.04502291100537972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06001138410464086</v>
+        <v>0.06036138231094396</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -1654,19 +1654,19 @@
         <v>243002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212202</v>
+        <v>212217</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>278504</v>
+        <v>273831</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0371290874646866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03242314697300156</v>
+        <v>0.03242543145369225</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04255365526456761</v>
+        <v>0.04183952864489716</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3160197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3142928</v>
+        <v>3142526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3176370</v>
+        <v>3176668</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9784462663219448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9730996430760669</v>
+        <v>0.9729750558560913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9834537036418937</v>
+        <v>0.9835460027588657</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3062</v>
@@ -1704,19 +1704,19 @@
         <v>3141582</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3116033</v>
+        <v>3114873</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3167161</v>
+        <v>3165719</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9476956714796758</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9399886158953591</v>
+        <v>0.939638617689056</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9554120914507562</v>
+        <v>0.95497708899462</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6163</v>
@@ -1725,19 +1725,19 @@
         <v>6301778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6266276</v>
+        <v>6270949</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6332578</v>
+        <v>6332563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9628709125353134</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9574463447354324</v>
+        <v>0.9581604713551028</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9675768530269985</v>
+        <v>0.9675745685463077</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>8083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3985</v>
+        <v>3988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15997</v>
+        <v>15226</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00777313434249268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003832709625389818</v>
+        <v>0.003834996308382054</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01538405223829123</v>
+        <v>0.01464283407805306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -2090,19 +2090,19 @@
         <v>63504</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50225</v>
+        <v>48809</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81173</v>
+        <v>80909</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05707181790707127</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0451381674915108</v>
+        <v>0.04386503442794258</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07295116677726633</v>
+        <v>0.07271373839882299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -2111,19 +2111,19 @@
         <v>71587</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57412</v>
+        <v>56516</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90767</v>
+        <v>90774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03325710248373101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02667182124236242</v>
+        <v>0.02625555679737607</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04216768345722869</v>
+        <v>0.04217090102754197</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1031734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1023820</v>
+        <v>1024591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1035832</v>
+        <v>1035829</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9922268656575073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9846159477617086</v>
+        <v>0.9853571659219471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9961672903746102</v>
+        <v>0.996165003691618</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>966</v>
@@ -2161,19 +2161,19 @@
         <v>1049197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1031528</v>
+        <v>1031792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1062476</v>
+        <v>1063892</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9429281820929287</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9270488332227337</v>
+        <v>0.927286261601177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9548618325084892</v>
+        <v>0.9561349655720575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1933</v>
@@ -2182,19 +2182,19 @@
         <v>2080932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2061752</v>
+        <v>2061745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2095107</v>
+        <v>2096003</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.966742897516269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9578323165427713</v>
+        <v>0.9578290989724579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9733281787576376</v>
+        <v>0.9737444432026237</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>12475</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6104</v>
+        <v>6157</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22551</v>
+        <v>22699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01280056467446782</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006263465270298237</v>
+        <v>0.006317679292147863</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02314071705296343</v>
+        <v>0.02329177967428558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -2307,19 +2307,19 @@
         <v>59518</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45086</v>
+        <v>46115</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75624</v>
+        <v>77880</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05454827251055803</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04132154929682012</v>
+        <v>0.0422645236189611</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06930921863304781</v>
+        <v>0.07137656942294948</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -2328,19 +2328,19 @@
         <v>71993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56589</v>
+        <v>57441</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91380</v>
+        <v>91412</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03485251746106437</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02739546264597019</v>
+        <v>0.0278076104517341</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04423788947073972</v>
+        <v>0.0442533848669869</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>962054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>951978</v>
+        <v>951830</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>968425</v>
+        <v>968372</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9871994353255322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9768592829470366</v>
+        <v>0.9767082203257145</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9937365347297017</v>
+        <v>0.9936823207078522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>960</v>
@@ -2378,19 +2378,19 @@
         <v>1031594</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1015488</v>
+        <v>1013232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1046026</v>
+        <v>1044997</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.945451727489442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9306907813669513</v>
+        <v>0.9286234305770501</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9586784507031798</v>
+        <v>0.9577354763810387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1871</v>
@@ -2399,19 +2399,19 @@
         <v>1993649</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1974262</v>
+        <v>1974230</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2009053</v>
+        <v>2008201</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9651474825389357</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9557621105292602</v>
+        <v>0.9557466151330132</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9726045373540297</v>
+        <v>0.9721923895482659</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>13942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7574</v>
+        <v>7394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24262</v>
+        <v>22995</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01576767669899418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008565688659049683</v>
+        <v>0.008362824590393782</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02744031240570124</v>
+        <v>0.0260073696854711</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -2524,19 +2524,19 @@
         <v>61667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46374</v>
+        <v>46266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78134</v>
+        <v>78627</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07057115104173521</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05306967235543321</v>
+        <v>0.0529470854695499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08941643221592088</v>
+        <v>0.0899798294932658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -2545,19 +2545,19 @@
         <v>75608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58211</v>
+        <v>59140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94810</v>
+        <v>95134</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04300792823105101</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03311203012037314</v>
+        <v>0.03364040260674214</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05393012208237503</v>
+        <v>0.05411459664881788</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>870243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>859923</v>
+        <v>861190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>876611</v>
+        <v>876791</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9842323233010059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9725596875942988</v>
+        <v>0.973992630314529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9914343113409503</v>
+        <v>0.9916371754096063</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>765</v>
@@ -2595,19 +2595,19 @@
         <v>812158</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>795691</v>
+        <v>795198</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>827451</v>
+        <v>827559</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9294288489582648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9105835677840792</v>
+        <v>0.9100201705067341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9469303276445669</v>
+        <v>0.9470529145304502</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1581</v>
@@ -2616,19 +2616,19 @@
         <v>1682402</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1663200</v>
+        <v>1662876</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1699799</v>
+        <v>1698870</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.956992071768949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.946069877917625</v>
+        <v>0.9458854033511824</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9668879698796269</v>
+        <v>0.9663595973932584</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>11057</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5243</v>
+        <v>5196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21650</v>
+        <v>21471</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02198091279290604</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01042204724422741</v>
+        <v>0.01032889586876297</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04303991675109291</v>
+        <v>0.04268296041581668</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2741,19 +2741,19 @@
         <v>28341</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18908</v>
+        <v>18815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41343</v>
+        <v>41074</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0628579200687196</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04193608423274025</v>
+        <v>0.0417309937516991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09169575757507516</v>
+        <v>0.09110042827560043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -2762,19 +2762,19 @@
         <v>39398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27548</v>
+        <v>28274</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55179</v>
+        <v>54046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04130193083069512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02887963031766768</v>
+        <v>0.02964036421321905</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05784636588756967</v>
+        <v>0.05665890314335665</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>491966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481373</v>
+        <v>481552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497780</v>
+        <v>497827</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.978019087207094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9569600832489068</v>
+        <v>0.9573170395841833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895779527557725</v>
+        <v>0.9896711041312369</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>385</v>
@@ -2812,19 +2812,19 @@
         <v>422527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>409525</v>
+        <v>409794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>431960</v>
+        <v>432053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9371420799312804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9083042424249249</v>
+        <v>0.9088995717243992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9580639157672597</v>
+        <v>0.9582690062482997</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>837</v>
@@ -2833,19 +2833,19 @@
         <v>914493</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>898712</v>
+        <v>899845</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>926343</v>
+        <v>925617</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9586980691693049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9421536341124304</v>
+        <v>0.9433410968566435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9711203696823324</v>
+        <v>0.9703596357867811</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>45556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32519</v>
+        <v>33000</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63712</v>
+        <v>61567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01339258535461094</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009560039633386863</v>
+        <v>0.009701355840804317</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01873018288048969</v>
+        <v>0.01809978127198742</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>195</v>
@@ -2958,19 +2958,19 @@
         <v>213030</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>185282</v>
+        <v>184565</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243768</v>
+        <v>242387</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06037388073995189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05250993955788148</v>
+        <v>0.05230686411500816</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06908523089018365</v>
+        <v>0.06869390236196722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -2979,19 +2979,19 @@
         <v>258585</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227706</v>
+        <v>227852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>295068</v>
+        <v>294061</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03731355915984328</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03285772267122133</v>
+        <v>0.03287874545241745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04257800831892625</v>
+        <v>0.04243263600820894</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3355998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3337842</v>
+        <v>3339987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3369035</v>
+        <v>3368554</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.986607414645389</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9812698171195091</v>
+        <v>0.9819002187280126</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9904399603666131</v>
+        <v>0.9902986441591957</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3076</v>
@@ -3029,19 +3029,19 @@
         <v>3315476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3284738</v>
+        <v>3286119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3343224</v>
+        <v>3343941</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9396261192600481</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9309147691098164</v>
+        <v>0.9313060976380328</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9474900604421187</v>
+        <v>0.9476931358849918</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6222</v>
@@ -3050,19 +3050,19 @@
         <v>6671476</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6634993</v>
+        <v>6636000</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6702355</v>
+        <v>6702209</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9626864408401568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9574219916810738</v>
+        <v>0.957567363991791</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9671422773287787</v>
+        <v>0.9671212545475826</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>12958</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7034</v>
+        <v>6916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23845</v>
+        <v>23428</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01148751375686435</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006235819249839123</v>
+        <v>0.006131303280806969</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02113886301966528</v>
+        <v>0.02076911840455165</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -3415,19 +3415,19 @@
         <v>53928</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39279</v>
+        <v>38769</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68559</v>
+        <v>70449</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04281467699643655</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03118467071093483</v>
+        <v>0.030779777024298</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05443120037486684</v>
+        <v>0.05593128761277244</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -3436,19 +3436,19 @@
         <v>66886</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51849</v>
+        <v>52022</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84285</v>
+        <v>87319</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02801421838485377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02171635710098426</v>
+        <v>0.02178889269082517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03530187208789611</v>
+        <v>0.03657230760092863</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1115039</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1104152</v>
+        <v>1104569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1120963</v>
+        <v>1121081</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9885124862431357</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9788611369803348</v>
+        <v>0.9792308815954485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.993764180750161</v>
+        <v>0.993868696719193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1139</v>
@@ -3486,19 +3486,19 @@
         <v>1205633</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1191002</v>
+        <v>1189112</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1220282</v>
+        <v>1220792</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9571853230035634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9455687996251333</v>
+        <v>0.9440687123872277</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9688153292890652</v>
+        <v>0.9692202229757023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2193</v>
@@ -3507,19 +3507,19 @@
         <v>2320672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2303273</v>
+        <v>2300239</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2335709</v>
+        <v>2335536</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9719857816151463</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.964698127912104</v>
+        <v>0.9634276923990713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9782836428990157</v>
+        <v>0.9782111073091748</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>13911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7771</v>
+        <v>8376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23852</v>
+        <v>24128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01530662718014768</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008550711994447098</v>
+        <v>0.009216397223774628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02624440959241357</v>
+        <v>0.02654809627934518</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3632,19 +3632,19 @@
         <v>31674</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21682</v>
+        <v>21432</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44506</v>
+        <v>43927</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0314702439751629</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02154201577156665</v>
+        <v>0.02129381522063312</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04421925515644471</v>
+        <v>0.04364467718095336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -3653,19 +3653,19 @@
         <v>45585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32772</v>
+        <v>33930</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59161</v>
+        <v>60798</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02380048212038888</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01711085565165889</v>
+        <v>0.01771515744053903</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03088849405848782</v>
+        <v>0.03174316063472084</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>894914</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>884973</v>
+        <v>884697</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>901054</v>
+        <v>900449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9846933728198524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9737555904075863</v>
+        <v>0.9734519037206547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9914492880055529</v>
+        <v>0.9907836027762252</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>921</v>
@@ -3703,19 +3703,19 @@
         <v>974801</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>961969</v>
+        <v>962548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>984793</v>
+        <v>985043</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9685297560248372</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9557807448435554</v>
+        <v>0.9563553228190467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9784579842284332</v>
+        <v>0.9787061847793669</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1788</v>
@@ -3724,19 +3724,19 @@
         <v>1869715</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1856139</v>
+        <v>1854502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1882528</v>
+        <v>1881370</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9761995178796111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9691115059415121</v>
+        <v>0.9682568393652791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9828891443483411</v>
+        <v>0.9822848425594609</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>13444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7332</v>
+        <v>7352</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21873</v>
+        <v>23378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0163202100440263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008900189885353502</v>
+        <v>0.008924437362290453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02655322809043674</v>
+        <v>0.02837937543936369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -3849,19 +3849,19 @@
         <v>42088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30753</v>
+        <v>29810</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56475</v>
+        <v>55940</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0545841854094291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03988426971477756</v>
+        <v>0.03866120116123682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07324285439220925</v>
+        <v>0.07254918430071278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -3870,19 +3870,19 @@
         <v>55532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42445</v>
+        <v>41224</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71316</v>
+        <v>70632</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03481998315788856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02661455968178459</v>
+        <v>0.02584864026480967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04471709109982006</v>
+        <v>0.04428854744381584</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>810315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>801886</v>
+        <v>800381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>816427</v>
+        <v>816407</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9836797899559737</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9734467719095633</v>
+        <v>0.9716206245606364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9910998101146464</v>
+        <v>0.9910755626377096</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>688</v>
@@ -3920,19 +3920,19 @@
         <v>728971</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>714584</v>
+        <v>715119</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>740306</v>
+        <v>741249</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9454158145905709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9267571456077908</v>
+        <v>0.927450815699287</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9601157302852225</v>
+        <v>0.9613387988387632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1461</v>
@@ -3941,19 +3941,19 @@
         <v>1539286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1523502</v>
+        <v>1524186</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1552373</v>
+        <v>1553594</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9651800168421114</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9552829089001799</v>
+        <v>0.9557114525561841</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9733854403182153</v>
+        <v>0.9741513597351903</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>3030</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8204</v>
+        <v>8321</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00598047840737563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001795421716410948</v>
+        <v>0.001800157024974671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01619016607723156</v>
+        <v>0.01642106284064972</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4066,19 +4066,19 @@
         <v>18265</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11172</v>
+        <v>11491</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28259</v>
+        <v>29276</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03729788996766863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02281398239077043</v>
+        <v>0.02346520521420765</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05770760745690805</v>
+        <v>0.05978287795909283</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -4087,19 +4087,19 @@
         <v>21295</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13563</v>
+        <v>12955</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32152</v>
+        <v>32829</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02137197136245878</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0136123086476499</v>
+        <v>0.01300212756743001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03226783421370658</v>
+        <v>0.03294796161047946</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>503671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498497</v>
+        <v>498380</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505791</v>
+        <v>505789</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9940195215926244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9838098339227688</v>
+        <v>0.9835789371593503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982045782835891</v>
+        <v>0.9981998429750253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -4137,19 +4137,19 @@
         <v>471433</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>461439</v>
+        <v>460422</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478526</v>
+        <v>478207</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9627021100323314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9422923925430918</v>
+        <v>0.9402171220409071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9771860176092294</v>
+        <v>0.9765347947857922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>906</v>
@@ -4158,19 +4158,19 @@
         <v>975103</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>964246</v>
+        <v>963569</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>982835</v>
+        <v>983443</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9786280286375412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9677321657862935</v>
+        <v>0.9670520383895207</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9863876913523502</v>
+        <v>0.9869978724325701</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>43343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32438</v>
+        <v>30664</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59688</v>
+        <v>57630</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01287185393438197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00963314505059293</v>
+        <v>0.009106541889237291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01772583186317969</v>
+        <v>0.01711459901368897</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -4283,19 +4283,19 @@
         <v>145954</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>124687</v>
+        <v>122474</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173534</v>
+        <v>171263</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04138435005249145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03535425746758857</v>
+        <v>0.03472668558248825</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04920457866603956</v>
+        <v>0.04856050576526275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>179</v>
@@ -4304,19 +4304,19 @@
         <v>189297</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164703</v>
+        <v>161647</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>219163</v>
+        <v>218318</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02745795273512468</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02389050731398451</v>
+        <v>0.02344725457807418</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03179004722325773</v>
+        <v>0.03166745224301309</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3323939</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3307594</v>
+        <v>3309652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3334844</v>
+        <v>3336618</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9871281460656181</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9822741681368203</v>
+        <v>0.9828854009863112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9903668549494071</v>
+        <v>0.9908934581107627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3186</v>
@@ -4354,19 +4354,19 @@
         <v>3380838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3353258</v>
+        <v>3355529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3402105</v>
+        <v>3404318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9586156499475086</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9507954213339612</v>
+        <v>0.9514394942347374</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9646457425324114</v>
+        <v>0.965273314417512</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6348</v>
@@ -4375,19 +4375,19 @@
         <v>6704778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6674912</v>
+        <v>6675757</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6729372</v>
+        <v>6732428</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9725420472648754</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9682099527767422</v>
+        <v>0.9683325477569871</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9761094926860154</v>
+        <v>0.9765527454219258</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>13667</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8401</v>
+        <v>8268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21594</v>
+        <v>21883</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02740384016893876</v>
+        <v>0.02740384016893875</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01684489185969336</v>
+        <v>0.0165779951181205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04329741134875539</v>
+        <v>0.04387609128706137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -4740,19 +4740,19 @@
         <v>34538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26547</v>
+        <v>26194</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45475</v>
+        <v>45694</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05538662096910677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04257152318538092</v>
+        <v>0.04200568533044671</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07292550753775268</v>
+        <v>0.07327655217422298</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -4761,19 +4761,19 @@
         <v>48205</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37578</v>
+        <v>37750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60573</v>
+        <v>61693</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04295155922946144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03348233686764876</v>
+        <v>0.03363549877887767</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05397082250741839</v>
+        <v>0.05496880812274341</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>485072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>477145</v>
+        <v>476856</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>490338</v>
+        <v>490471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9725961598310613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9567025886512447</v>
+        <v>0.9561239087129384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9831551081403065</v>
+        <v>0.9834220048818795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>807</v>
@@ -4811,19 +4811,19 @@
         <v>589042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>578105</v>
+        <v>577886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>597033</v>
+        <v>597386</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.944613379030893</v>
+        <v>0.9446133790308932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9270744924622472</v>
+        <v>0.9267234478257774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9574284768146191</v>
+        <v>0.9579943146695533</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1245</v>
@@ -4832,19 +4832,19 @@
         <v>1074115</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1061747</v>
+        <v>1060627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1084742</v>
+        <v>1084570</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9570484407705385</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9460291774925816</v>
+        <v>0.9450311918772568</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9665176631323512</v>
+        <v>0.9663645012211224</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>19744</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12321</v>
+        <v>12375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30051</v>
+        <v>30881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02057418725496737</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0128388272890049</v>
+        <v>0.01289569465326364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03131499395880838</v>
+        <v>0.03218018176548339</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -4957,19 +4957,19 @@
         <v>53487</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42748</v>
+        <v>41927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65820</v>
+        <v>65377</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04795948254470976</v>
+        <v>0.04795948254470978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03833083205244436</v>
+        <v>0.03759424622539188</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05901812910935554</v>
+        <v>0.05862127415769647</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -4978,19 +4978,19 @@
         <v>73230</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59531</v>
+        <v>59380</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89695</v>
+        <v>88310</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03529370390349851</v>
+        <v>0.0352937039034985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02869116178428719</v>
+        <v>0.02861819151724046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04322901204801612</v>
+        <v>0.04256157245703698</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>939898</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>929591</v>
+        <v>928761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947321</v>
+        <v>947267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9794258127450327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9686850060411913</v>
+        <v>0.9678198182345167</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.987161172710995</v>
+        <v>0.9871043053467363</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1519</v>
@@ -5028,19 +5028,19 @@
         <v>1061759</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1049426</v>
+        <v>1049869</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1072498</v>
+        <v>1073319</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9520405174552903</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9409818708906444</v>
+        <v>0.9413787258423033</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9616691679475561</v>
+        <v>0.9624057537746077</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2404</v>
@@ -5049,19 +5049,19 @@
         <v>2001658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1985193</v>
+        <v>1986578</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2015357</v>
+        <v>2015508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9647062960965015</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.956770987951984</v>
+        <v>0.957438427542963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9713088382157129</v>
+        <v>0.9713818084827597</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>18239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11609</v>
+        <v>11822</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29138</v>
+        <v>29492</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01742860359670423</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01109358504695186</v>
+        <v>0.01129691394399016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0278442717259215</v>
+        <v>0.02818190438127746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -5174,19 +5174,19 @@
         <v>51642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41217</v>
+        <v>41472</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64014</v>
+        <v>64905</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04930890636593029</v>
+        <v>0.0493089063659303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03935504408089044</v>
+        <v>0.03959842415076165</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06112215134309406</v>
+        <v>0.06197347820779219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -5195,19 +5195,19 @@
         <v>69880</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57226</v>
+        <v>57025</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84309</v>
+        <v>86127</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03337508248409678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0273315357939321</v>
+        <v>0.02723517018386946</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04026612132562695</v>
+        <v>0.04113432291790054</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1028240</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1017341</v>
+        <v>1016987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1034870</v>
+        <v>1034657</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9825713964032957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9721557282740784</v>
+        <v>0.9718180956187227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9889064149530479</v>
+        <v>0.9887030860560098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1426</v>
@@ -5245,19 +5245,19 @@
         <v>995668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>983296</v>
+        <v>982405</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1006093</v>
+        <v>1005838</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9506910936340697</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9388778486569059</v>
+        <v>0.9380265217922077</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9606449559191097</v>
+        <v>0.9604015758492382</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2433</v>
@@ -5266,19 +5266,19 @@
         <v>2023910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2009481</v>
+        <v>2007663</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2036564</v>
+        <v>2036765</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9666249175159032</v>
+        <v>0.9666249175159034</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9597338786743733</v>
+        <v>0.9588656770820991</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9726684642060681</v>
+        <v>0.9727648298161303</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>23528</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14763</v>
+        <v>15302</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34055</v>
+        <v>35560</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02410831530494927</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01512675374845188</v>
+        <v>0.01567991362075179</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03489447470638349</v>
+        <v>0.03643734001665912</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -5391,19 +5391,19 @@
         <v>58077</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47120</v>
+        <v>45949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73671</v>
+        <v>72957</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06391577279717886</v>
+        <v>0.06391577279717885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05185709167368401</v>
+        <v>0.05056841050411507</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08107867936139074</v>
+        <v>0.08029219713896565</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -5412,19 +5412,19 @@
         <v>81605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66489</v>
+        <v>65332</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99500</v>
+        <v>98135</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04330139747418811</v>
+        <v>0.0433013974741881</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03528075046332857</v>
+        <v>0.03466703391366965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05279719162122304</v>
+        <v>0.05207296646914902</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>952401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>941874</v>
+        <v>940369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>961166</v>
+        <v>960627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9758916846950507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9651055252936164</v>
+        <v>0.9635626599833409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.984873246251548</v>
+        <v>0.9843200863792482</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1227</v>
@@ -5462,19 +5462,19 @@
         <v>850565</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>834971</v>
+        <v>835685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>861522</v>
+        <v>862693</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9360842272028213</v>
+        <v>0.9360842272028211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9189213206386091</v>
+        <v>0.9197078028610337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.948142908326316</v>
+        <v>0.9494315894958847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2150</v>
@@ -5483,19 +5483,19 @@
         <v>1802966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1785071</v>
+        <v>1786436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1818082</v>
+        <v>1819239</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.956698602525812</v>
+        <v>0.9566986025258118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.947202808378777</v>
+        <v>0.9479270335308509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.964719249536674</v>
+        <v>0.9653329660863302</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>75178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61132</v>
+        <v>59628</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92613</v>
+        <v>93723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02159794560897512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01756271802653286</v>
+        <v>0.01713068407557722</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02660688884274945</v>
+        <v>0.02692585058831307</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>324</v>
@@ -5608,19 +5608,19 @@
         <v>197743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175877</v>
+        <v>175621</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>223108</v>
+        <v>221092</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05351955506025687</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04760150053943846</v>
+        <v>0.04753217673125659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06038466722005145</v>
+        <v>0.05983906280485492</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>411</v>
@@ -5629,19 +5629,19 @@
         <v>272921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>245243</v>
+        <v>245424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>303213</v>
+        <v>300253</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03803473281945968</v>
+        <v>0.03803473281945967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03417752467332596</v>
+        <v>0.03420274955378044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04225632613159138</v>
+        <v>0.04184376833715871</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3405611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3388176</v>
+        <v>3387066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3419657</v>
+        <v>3421161</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9784020543910248</v>
+        <v>0.9784020543910249</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9733931111572507</v>
+        <v>0.9730741494116872</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.982437281973467</v>
+        <v>0.9828693159244229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4979</v>
@@ -5679,19 +5679,19 @@
         <v>3497036</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3471671</v>
+        <v>3473687</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3518902</v>
+        <v>3519158</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9464804449397431</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9396153327799485</v>
+        <v>0.940160937195144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9523984994605614</v>
+        <v>0.9524678232687429</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8232</v>
@@ -5700,19 +5700,19 @@
         <v>6902647</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6872355</v>
+        <v>6875315</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6930325</v>
+        <v>6930144</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9619652671805402</v>
+        <v>0.9619652671805404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9577436738684086</v>
+        <v>0.9581562316628413</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9658224753266741</v>
+        <v>0.9657972504462194</v>
       </c>
     </row>
     <row r="18">
